--- a/data/xlsx/03172019.xlsx
+++ b/data/xlsx/03172019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/s19-web-dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B22E42-6DB5-CD41-8C12-E439CA310A20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA275AD0-FE1D-1447-9286-C03F59FA6EF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="440" windowWidth="13760" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -204,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -247,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+      <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -884,6 +884,9 @@
       <c r="G11">
         <v>-122.257558</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
